--- a/task_temp/data/etf_pair_code.xlsx
+++ b/task_temp/data/etf_pair_code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6107" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="980">
   <si>
     <t>symbol</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2970,6 +2970,9 @@
   <si>
     <t>Curncy</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -3012,8 +3015,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3376,10 +3380,10 @@
   <dimension ref="A1:D1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B752" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L765" sqref="L765"/>
+      <selection pane="bottomRight" activeCell="A755" sqref="A755:XFD755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -13946,6 +13950,9 @@
     <row r="755" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
         <v>658</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="C755" t="s">
         <v>676</v>
